--- a/DATA_goal/Junction_Flooding_465.xlsx
+++ b/DATA_goal/Junction_Flooding_465.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44796.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.33</v>
+        <v>13.28</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.88</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.51</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.88</v>
+        <v>28.83</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.15</v>
+        <v>21.49</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.02</v>
+        <v>10.24</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3.06</v>
+        <v>30.57</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.63</v>
+        <v>16.29</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.65</v>
+        <v>6.47</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.96</v>
+        <v>9.56</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.13</v>
+        <v>11.33</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.21</v>
+        <v>12.14</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.38</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.05</v>
+        <v>10.53</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.44</v>
+        <v>14.42</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.41</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.8</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.64</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>15.28</v>
+        <v>152.85</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.91</v>
+        <v>29.12</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.88</v>
+        <v>18.77</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.96</v>
+        <v>9.57</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.81</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.65</v>
+        <v>16.47</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.58</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.79</v>
+        <v>7.9</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.17</v>
+        <v>11.72</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.07</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.77</v>
+        <v>27.69</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.18</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.21</v>
+        <v>12.15</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44796.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.38</v>
+        <v>13.8</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.99</v>
+        <v>9.9</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.67</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.03</v>
+        <v>30.26</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.38</v>
+        <v>23.79</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.07</v>
+        <v>10.74</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.11</v>
+        <v>41.06</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.69</v>
+        <v>16.87</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.72</v>
+        <v>7.22</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.05</v>
+        <v>10.51</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.21</v>
+        <v>12.07</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.29</v>
+        <v>12.9</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.5</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.09</v>
+        <v>10.9</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.53</v>
+        <v>15.29</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.95</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.37</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>15.86</v>
+        <v>158.63</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.05</v>
+        <v>30.49</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.01</v>
+        <v>10.06</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.01</v>
+        <v>20.11</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.04</v>
+        <v>10.44</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.2</v>
+        <v>2.04</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.04</v>
+        <v>20.43</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.89</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.06</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.95</v>
+        <v>9.49</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.26</v>
+        <v>12.56</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.78</v>
+        <v>37.75</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.55</v>
+        <v>5.51</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.26</v>
+        <v>12.58</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44796.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.61</v>
+        <v>6.13</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.43</v>
+        <v>4.34</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.36</v>
+        <v>13.58</v>
       </c>
       <c r="F4" s="4" t="n">
+        <v>10.39</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>67.09</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="Y4" s="4" t="n">
         <v>1.04</v>
       </c>
-      <c r="G4" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>6.71</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.1</v>
-      </c>
       <c r="Z4" s="4" t="n">
-        <v>1.05</v>
+        <v>10.47</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.4</v>
+        <v>3.98</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.69</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.43</v>
+        <v>4.33</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.61</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.05</v>
+        <v>20.55</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.4</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44796.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.47</v>
+        <v>4.71</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.34</v>
+        <v>3.36</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.05</v>
+        <v>10.45</v>
       </c>
       <c r="F5" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>6.87</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Y5" s="4" t="n">
         <v>0.8</v>
       </c>
-      <c r="G5" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.08</v>
-      </c>
       <c r="Z5" s="4" t="n">
-        <v>0.76</v>
+        <v>7.61</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.31</v>
+        <v>3.07</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.84</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.33</v>
+        <v>3.33</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.34</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.49</v>
+        <v>14.86</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.84</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_465.xlsx
+++ b/DATA_goal/Junction_Flooding_465.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44796.54861111111</v>
+        <v>45146.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>13.28</v>
+        <v>5.237</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>8.789999999999999</v>
+        <v>1.607</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.51</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>28.83</v>
+        <v>2.478</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>21.49</v>
+        <v>3.053</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>10.24</v>
+        <v>2.519</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>30.57</v>
+        <v>5.488</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>16.29</v>
+        <v>1.554</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>6.47</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>9.56</v>
+        <v>4.022</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>11.33</v>
+        <v>1.069</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>12.14</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.38</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>10.53</v>
+        <v>0.87</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>14.42</v>
+        <v>2.749</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.41</v>
+        <v>1.106</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.8</v>
+        <v>0.51</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.64</v>
+        <v>0.063</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>152.85</v>
+        <v>20.094</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>29.12</v>
+        <v>4.803</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>2.372</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>18.77</v>
+        <v>3.891</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>9.57</v>
+        <v>1.034</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.81</v>
+        <v>0.249</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>16.47</v>
+        <v>1.98</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>8.58</v>
+        <v>1.154</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>7.9</v>
+        <v>0.674</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>11.72</v>
+        <v>3.129</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.07</v>
+        <v>2.866</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>27.69</v>
+        <v>3.128</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.18</v>
+        <v>0.446</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>12.15</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44796.55555555555</v>
+        <v>45146.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>13.8</v>
+        <v>10.78</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>9.9</v>
+        <v>7.314</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.67</v>
+        <v>0.159</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>30.26</v>
+        <v>19.564</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>23.79</v>
+        <v>16.853</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>10.74</v>
+        <v>8.041</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>41.06</v>
+        <v>24.27</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>16.87</v>
+        <v>10.938</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.22</v>
+        <v>5.132</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>10.51</v>
+        <v>8.691000000000001</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>12.07</v>
+        <v>7.984</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>12.9</v>
+        <v>8.172000000000001</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.5</v>
+        <v>2.427</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>10.9</v>
+        <v>7.013</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>15.29</v>
+        <v>11.086</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>9.539999999999999</v>
+        <v>5.966</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.37</v>
+        <v>0.452</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>158.63</v>
+        <v>106.674</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>30.49</v>
+        <v>20.818</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>10.06</v>
+        <v>7.275</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>20.11</v>
+        <v>14.289</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>10.44</v>
+        <v>7.098</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.04</v>
+        <v>0.986</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>20.43</v>
+        <v>12.441</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>8.890000000000001</v>
+        <v>6.039</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>8.06</v>
+        <v>5.036</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>9.49</v>
+        <v>6.028</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>12.56</v>
+        <v>9.419</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.2</v>
+        <v>1.133</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>37.75</v>
+        <v>21.078</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.51</v>
+        <v>3.662</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>12.58</v>
+        <v>8.327999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44796.5625</v>
+        <v>45146.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.13</v>
+        <v>17.552</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.34</v>
+        <v>12.742</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.96</v>
+        <v>0.421</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>13.58</v>
+        <v>35.692</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>10.39</v>
+        <v>29.987</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>4.75</v>
+        <v>13.589</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>22.1</v>
+        <v>49.045</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>7.56</v>
+        <v>19.871</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.19</v>
+        <v>9.114000000000001</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.5</v>
+        <v>14.213</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5.41</v>
+        <v>14.453</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>5.84</v>
+        <v>15.033</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.57</v>
+        <v>4.232</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4.89</v>
+        <v>12.829</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>6.83</v>
+        <v>19.128</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.42</v>
+        <v>10.712</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.88</v>
+        <v>0.43</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.51</v>
+        <v>0.403</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>67.09</v>
+        <v>192.707</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>13.83</v>
+        <v>36.743</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.51</v>
+        <v>12.369</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>9</v>
+        <v>24.986</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>4.63</v>
+        <v>12.844</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.04</v>
+        <v>1.725</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>10.47</v>
+        <v>24.434</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.98</v>
+        <v>10.688</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.69</v>
+        <v>9.183</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.33</v>
+        <v>10.875</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>5.61</v>
+        <v>15.85</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.75</v>
+        <v>0.716</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>20.55</v>
+        <v>44.204</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.4</v>
+        <v>6.723</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>5.64</v>
+        <v>14.957</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44796.56944444445</v>
+        <v>45146.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.71</v>
+        <v>13.99</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.36</v>
+        <v>10.21</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.71</v>
+        <v>0.33</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>10.45</v>
+        <v>28.6</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>8</v>
+        <v>24.01</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.65</v>
+        <v>10.87</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>16.14</v>
+        <v>42.6</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>5.82</v>
+        <v>15.91</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.45</v>
+        <v>7.31</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.46</v>
+        <v>11.33</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.17</v>
+        <v>11.6</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.51</v>
+        <v>12.04</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.21</v>
+        <v>3.39</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.76</v>
+        <v>10.29</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>5.24</v>
+        <v>15.33</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.41</v>
+        <v>8.57</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.66</v>
+        <v>0.35</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.37</v>
+        <v>0.31</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>49.9</v>
+        <v>152.73</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>10.57</v>
+        <v>29.48</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.47</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>6.87</v>
+        <v>20.03</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.56</v>
+        <v>10.3</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.8</v>
+        <v>1.38</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>7.61</v>
+        <v>20.63</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.07</v>
+        <v>8.56</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.84</v>
+        <v>7.36</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.33</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>4.34</v>
+        <v>12.66</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>14.86</v>
+        <v>38.49</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.84</v>
+        <v>5.39</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>4.34</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44796.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>8.34</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>7.89</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>1.74</v>
+        <v>11.98</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_465.xlsx
+++ b/DATA_goal/Junction_Flooding_465.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,7 +444,7 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
@@ -458,7 +458,7 @@
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
@@ -468,10 +468,10 @@
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45146.50694444445</v>
+        <v>44796.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.237</v>
+        <v>13.283</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.607</v>
+        <v>8.791</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>3.507</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.478</v>
+        <v>28.828</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.053</v>
+        <v>21.492</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.519</v>
+        <v>10.237</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.488</v>
+        <v>30.575</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.554</v>
+        <v>16.288</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.9409999999999999</v>
+        <v>6.473</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.022</v>
+        <v>9.558999999999999</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.069</v>
+        <v>11.331</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.9379999999999999</v>
+        <v>12.141</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.6929999999999999</v>
+        <v>3.376</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.87</v>
+        <v>10.527</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.749</v>
+        <v>14.419</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.106</v>
+        <v>9.413</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.51</v>
+        <v>2.798</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.063</v>
+        <v>1.636</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>20.094</v>
+        <v>152.85</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.803</v>
+        <v>29.125</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.372</v>
+        <v>9.717000000000001</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.891</v>
+        <v>18.774</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.034</v>
+        <v>9.568</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.249</v>
+        <v>2.805</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.98</v>
+        <v>16.47</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.154</v>
+        <v>8.583</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.674</v>
+        <v>7.902</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.369</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.129</v>
+        <v>11.722</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.866</v>
+        <v>3.066</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.128</v>
+        <v>27.695</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.446</v>
+        <v>5.181</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.43</v>
+        <v>12.147</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45146.51388888889</v>
+        <v>44796.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>10.78</v>
+        <v>13.798</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>7.314</v>
+        <v>9.898999999999999</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.159</v>
+        <v>1.673</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>19.564</v>
+        <v>30.263</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>16.853</v>
+        <v>23.792</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>8.041</v>
+        <v>10.735</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>24.27</v>
+        <v>41.061</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>10.938</v>
+        <v>16.87</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.132</v>
+        <v>7.221</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>8.691000000000001</v>
+        <v>10.511</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>7.984</v>
+        <v>12.068</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>8.172000000000001</v>
+        <v>12.902</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.427</v>
+        <v>3.502</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>7.013</v>
+        <v>10.903</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>11.086</v>
+        <v>15.295</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.966</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.452</v>
+        <v>1.369</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.19</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>106.674</v>
+        <v>158.628</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>20.818</v>
+        <v>30.494</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>7.275</v>
+        <v>10.064</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>14.289</v>
+        <v>20.109</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>7.098</v>
+        <v>10.444</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.986</v>
+        <v>2.038</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>12.441</v>
+        <v>20.434</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>6.039</v>
+        <v>8.888999999999999</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.036</v>
+        <v>8.057</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>6.028</v>
+        <v>9.49</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>9.419</v>
+        <v>12.561</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.133</v>
+        <v>1.196</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>21.078</v>
+        <v>37.754</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.662</v>
+        <v>5.506</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>8.327999999999999</v>
+        <v>12.582</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45146.52083333334</v>
+        <v>44796.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>17.552</v>
+        <v>6.134</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>12.742</v>
+        <v>4.345</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.421</v>
+        <v>0.96</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>35.692</v>
+        <v>13.58</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>29.987</v>
+        <v>10.386</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>13.589</v>
+        <v>4.745</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>49.045</v>
+        <v>22.099</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>19.871</v>
+        <v>7.562</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>9.114000000000001</v>
+        <v>3.194</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>14.213</v>
+        <v>4.5</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>14.453</v>
+        <v>5.413</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>15.033</v>
+        <v>5.842</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.232</v>
+        <v>1.575</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>12.829</v>
+        <v>4.888</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>19.128</v>
+        <v>6.829</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>10.712</v>
+        <v>4.422</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.43</v>
+        <v>0.882</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.403</v>
+        <v>0.511</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>192.707</v>
+        <v>67.089</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>36.743</v>
+        <v>13.829</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>12.369</v>
+        <v>4.511</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>24.986</v>
+        <v>9.003</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>12.844</v>
+        <v>4.629</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.725</v>
+        <v>1.044</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>24.434</v>
+        <v>10.474</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>10.688</v>
+        <v>3.985</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>9.183</v>
+        <v>3.685</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>10.875</v>
+        <v>4.328</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>15.85</v>
+        <v>5.614</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.716</v>
+        <v>0.745</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>44.204</v>
+        <v>20.546</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.723</v>
+        <v>2.4</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>14.957</v>
+        <v>5.641</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45146.52777777778</v>
+        <v>44796.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>13.99</v>
+        <v>4.709</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.21</v>
+        <v>3.364</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.33</v>
+        <v>0.706</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>28.6</v>
+        <v>10.452</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>24.01</v>
+        <v>8.002000000000001</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.87</v>
+        <v>3.646</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>42.6</v>
+        <v>16.141</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>15.91</v>
+        <v>5.817</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.31</v>
+        <v>2.453</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.33</v>
+        <v>3.458</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>11.6</v>
+        <v>4.173</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>12.04</v>
+        <v>4.515</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.39</v>
+        <v>1.209</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.29</v>
+        <v>3.76</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>15.33</v>
+        <v>5.237</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.57</v>
+        <v>3.407</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.35</v>
+        <v>0.665</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.31</v>
+        <v>0.374</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>152.73</v>
+        <v>49.897</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>29.48</v>
+        <v>10.574</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>9.880000000000001</v>
+        <v>3.47</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>20.03</v>
+        <v>6.872</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>10.3</v>
+        <v>3.563</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.38</v>
+        <v>0.797</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>20.63</v>
+        <v>7.614</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.56</v>
+        <v>3.065</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.36</v>
+        <v>2.837</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>8.710000000000001</v>
+        <v>3.327</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>12.66</v>
+        <v>4.337</v>
       </c>
       <c r="AE5" s="4" t="n">
+        <v>0.542</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>14.859</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>1.842</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>4.339</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44796.57637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="R6" s="4" t="n">
         <v>0.52</v>
       </c>
-      <c r="AF5" s="4" t="n">
-        <v>38.49</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>11.98</v>
+      <c r="S6" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>1.74</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_465.xlsx
+++ b/DATA_goal/Junction_Flooding_465.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,7 +444,7 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
@@ -458,7 +458,7 @@
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
@@ -468,10 +468,10 @@
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44796.54861111111</v>
+        <v>45146.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>13.283</v>
+        <v>5.237</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>8.791</v>
+        <v>1.607</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.507</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>28.828</v>
+        <v>2.478</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>21.492</v>
+        <v>3.053</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>10.237</v>
+        <v>2.519</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>30.575</v>
+        <v>5.488</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>16.288</v>
+        <v>1.554</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>6.473</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>9.558999999999999</v>
+        <v>4.022</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>11.331</v>
+        <v>1.069</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>12.141</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.376</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>10.527</v>
+        <v>0.87</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>14.419</v>
+        <v>2.749</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.413</v>
+        <v>1.106</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.798</v>
+        <v>0.51</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.636</v>
+        <v>0.063</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>152.85</v>
+        <v>20.094</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>29.125</v>
+        <v>4.803</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>9.717000000000001</v>
+        <v>2.372</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>18.774</v>
+        <v>3.891</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>9.568</v>
+        <v>1.034</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.805</v>
+        <v>0.249</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>16.47</v>
+        <v>1.98</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>8.583</v>
+        <v>1.154</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>7.902</v>
+        <v>0.674</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>9.369</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>11.722</v>
+        <v>3.129</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.066</v>
+        <v>2.866</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>27.695</v>
+        <v>3.128</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.181</v>
+        <v>0.446</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>12.147</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44796.55555555555</v>
+        <v>45146.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>13.798</v>
+        <v>10.78</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>9.898999999999999</v>
+        <v>7.314</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.673</v>
+        <v>0.159</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>30.263</v>
+        <v>19.564</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>23.792</v>
+        <v>16.853</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>10.735</v>
+        <v>8.041</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>41.061</v>
+        <v>24.27</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>16.87</v>
+        <v>10.938</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.221</v>
+        <v>5.132</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>10.511</v>
+        <v>8.691000000000001</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>12.068</v>
+        <v>7.984</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>12.902</v>
+        <v>8.172000000000001</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.502</v>
+        <v>2.427</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>10.903</v>
+        <v>7.013</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>15.295</v>
+        <v>11.086</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>9.539999999999999</v>
+        <v>5.966</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.369</v>
+        <v>0.452</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.9419999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>158.628</v>
+        <v>106.674</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>30.494</v>
+        <v>20.818</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>10.064</v>
+        <v>7.275</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>20.109</v>
+        <v>14.289</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>10.444</v>
+        <v>7.098</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.038</v>
+        <v>0.986</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>20.434</v>
+        <v>12.441</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>8.888999999999999</v>
+        <v>6.039</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>8.057</v>
+        <v>5.036</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>9.49</v>
+        <v>6.028</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>12.561</v>
+        <v>9.419</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.196</v>
+        <v>1.133</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>37.754</v>
+        <v>21.078</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.506</v>
+        <v>3.662</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>12.582</v>
+        <v>8.327999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44796.5625</v>
+        <v>45146.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.134</v>
+        <v>17.552</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.345</v>
+        <v>12.742</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.96</v>
+        <v>0.421</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>13.58</v>
+        <v>35.692</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>10.386</v>
+        <v>29.987</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>4.745</v>
+        <v>13.589</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>22.099</v>
+        <v>49.045</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>7.562</v>
+        <v>19.871</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.194</v>
+        <v>9.114000000000001</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.5</v>
+        <v>14.213</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5.413</v>
+        <v>14.453</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>5.842</v>
+        <v>15.033</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.575</v>
+        <v>4.232</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4.888</v>
+        <v>12.829</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>6.829</v>
+        <v>19.128</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.422</v>
+        <v>10.712</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.882</v>
+        <v>0.43</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.511</v>
+        <v>0.403</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>67.089</v>
+        <v>192.707</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>13.829</v>
+        <v>36.743</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.511</v>
+        <v>12.369</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>9.003</v>
+        <v>24.986</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>4.629</v>
+        <v>12.844</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.044</v>
+        <v>1.725</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>10.474</v>
+        <v>24.434</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.985</v>
+        <v>10.688</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.685</v>
+        <v>9.183</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.328</v>
+        <v>10.875</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>5.614</v>
+        <v>15.85</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.745</v>
+        <v>0.716</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>20.546</v>
+        <v>44.204</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.4</v>
+        <v>6.723</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>5.641</v>
+        <v>14.957</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44796.56944444445</v>
+        <v>45146.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.709</v>
+        <v>13.99</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.364</v>
+        <v>10.21</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.706</v>
+        <v>0.33</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>10.452</v>
+        <v>28.6</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>8.002000000000001</v>
+        <v>24.01</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.646</v>
+        <v>10.87</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>16.141</v>
+        <v>42.6</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>5.817</v>
+        <v>15.91</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.453</v>
+        <v>7.31</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.458</v>
+        <v>11.33</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.173</v>
+        <v>11.6</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.515</v>
+        <v>12.04</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.209</v>
+        <v>3.39</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.76</v>
+        <v>10.29</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>5.237</v>
+        <v>15.33</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.407</v>
+        <v>8.57</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.665</v>
+        <v>0.35</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.374</v>
+        <v>0.31</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>49.897</v>
+        <v>152.73</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>10.574</v>
+        <v>29.48</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.47</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>6.872</v>
+        <v>20.03</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.563</v>
+        <v>10.3</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.797</v>
+        <v>1.38</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>7.614</v>
+        <v>20.63</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.065</v>
+        <v>8.56</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.837</v>
+        <v>7.36</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.327</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>4.337</v>
+        <v>12.66</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.542</v>
+        <v>0.52</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>14.859</v>
+        <v>38.49</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.842</v>
+        <v>5.39</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>4.339</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44796.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>8.34</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>7.89</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>1.74</v>
+        <v>11.98</v>
       </c>
     </row>
   </sheetData>
